--- a/examples/max-flow.xlsx
+++ b/examples/max-flow.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srs\source\repos\snra\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\srs\source\repos\snram\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>start_node</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Target</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
 </sst>
 </file>
@@ -424,8 +427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +540,7 @@
     <col min="3" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -551,10 +554,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -567,11 +573,14 @@
       <c r="D2" s="2">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -584,11 +593,14 @@
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -601,11 +613,14 @@
       <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -618,11 +633,14 @@
       <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -635,11 +653,14 @@
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -652,25 +673,28 @@
       <c r="D7" s="2">
         <v>3</v>
       </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>

--- a/examples/max-flow.xlsx
+++ b/examples/max-flow.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="2" r:id="rId1"/>
-    <sheet name="arcs" sheetId="1" r:id="rId2"/>
+    <sheet name="links" sheetId="1" r:id="rId2"/>
     <sheet name="scale" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -431,12 +431,12 @@
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -450,7 +450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -533,14 +533,14 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -560,7 +560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -580,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -600,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -620,7 +620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -660,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
@@ -680,21 +680,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -715,17 +715,17 @@
       <selection activeCell="C9" sqref="C9:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -741,7 +741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -749,7 +749,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -757,7 +757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -765,12 +765,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>13</v>
       </c>
@@ -778,7 +778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -794,7 +794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>15</v>
       </c>
@@ -802,7 +802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
